--- a/Code/Results/Cases/Case_3_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_176/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.092419740434195</v>
+        <v>0.5487310763284654</v>
       </c>
       <c r="C2">
-        <v>0.1449690758395121</v>
+        <v>0.04628598318475952</v>
       </c>
       <c r="D2">
-        <v>0.04392367914929052</v>
+        <v>0.06813507012373599</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.639579297849252</v>
+        <v>1.68530142800185</v>
       </c>
       <c r="G2">
-        <v>0.0008121163297601198</v>
+        <v>0.002498868747215143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.141486155482596</v>
+        <v>0.5177818012245723</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.751434107962766</v>
+        <v>0.8774898827038982</v>
       </c>
       <c r="N2">
-        <v>1.801332627641145</v>
+        <v>2.554056340231384</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9471953907597594</v>
+        <v>0.5120698686170897</v>
       </c>
       <c r="C3">
-        <v>0.1250664676050519</v>
+        <v>0.04092766014900917</v>
       </c>
       <c r="D3">
-        <v>0.04565353397775285</v>
+        <v>0.06827354830565069</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.507248710010828</v>
+        <v>1.65590589052303</v>
       </c>
       <c r="G3">
-        <v>0.0008189299234895309</v>
+        <v>0.002502912754646737</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9874997657754818</v>
+        <v>0.4783511471295867</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.338501962137585</v>
+        <v>0.7818136211122635</v>
       </c>
       <c r="N3">
-        <v>1.778926624361887</v>
+        <v>2.549120797849866</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.859285509699248</v>
+        <v>0.489886788269132</v>
       </c>
       <c r="C4">
-        <v>0.1129891997908175</v>
+        <v>0.03765358004258701</v>
       </c>
       <c r="D4">
-        <v>0.04670899729286759</v>
+        <v>0.06835520188814881</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.428792877592258</v>
+        <v>1.638639528467422</v>
       </c>
       <c r="G4">
-        <v>0.0008232140260771865</v>
+        <v>0.002505524586723373</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8942346630394411</v>
+        <v>0.4544399296461563</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.094417461242926</v>
+        <v>0.7236161133314596</v>
       </c>
       <c r="N4">
-        <v>1.76737481718915</v>
+        <v>2.546719123599146</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.823737619290938</v>
+        <v>0.4809290774219903</v>
       </c>
       <c r="C5">
-        <v>0.1080978693826751</v>
+        <v>0.03632331954131018</v>
       </c>
       <c r="D5">
-        <v>0.04713783504766367</v>
+        <v>0.06838763115588997</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.397457660915819</v>
+        <v>1.63179948471155</v>
       </c>
       <c r="G5">
-        <v>0.0008249867460232547</v>
+        <v>0.002506621430187587</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8565080273422154</v>
+        <v>0.4447709615452595</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.996916765954651</v>
+        <v>0.700031484842242</v>
       </c>
       <c r="N5">
-        <v>1.763181950837861</v>
+        <v>2.545897926150275</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8178504754604887</v>
+        <v>0.4794466088263789</v>
       </c>
       <c r="C6">
-        <v>0.1072873362902129</v>
+        <v>0.03610266793289441</v>
       </c>
       <c r="D6">
-        <v>0.04720897757595388</v>
+        <v>0.06839296504527859</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.392291057371878</v>
+        <v>1.630675528004559</v>
       </c>
       <c r="G6">
-        <v>0.0008252827748271852</v>
+        <v>0.002506805526518616</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.850259244646594</v>
+        <v>0.4431699628792387</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.980834666742425</v>
+        <v>0.6961230195227586</v>
       </c>
       <c r="N6">
-        <v>1.762515710747579</v>
+        <v>2.545771062252413</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.858805031519438</v>
+        <v>0.4897656493419049</v>
       </c>
       <c r="C7">
-        <v>0.1129231183304711</v>
+        <v>0.03763562375176832</v>
       </c>
       <c r="D7">
-        <v>0.04671478538947227</v>
+        <v>0.06835564265911631</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.428367787922525</v>
+        <v>1.638546487940161</v>
       </c>
       <c r="G7">
-        <v>0.000823237822578572</v>
+        <v>0.002505539247464312</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.89372479054623</v>
+        <v>0.4543092269954059</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.093095074252005</v>
+        <v>0.7232975195421432</v>
       </c>
       <c r="N7">
-        <v>1.767316237274542</v>
+        <v>2.546707411703082</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.042059839563109</v>
+        <v>0.5360222992001127</v>
       </c>
       <c r="C8">
-        <v>0.138073394540271</v>
+        <v>0.04443508612943958</v>
       </c>
       <c r="D8">
-        <v>0.04452177586365202</v>
+        <v>0.06818351908998022</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.593329198813848</v>
+        <v>1.675003004320075</v>
       </c>
       <c r="G8">
-        <v>0.0008144458346049608</v>
+        <v>0.002500236458389892</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.088098313449279</v>
+        <v>0.504123825121269</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.606823167348978</v>
+        <v>0.8443829763395883</v>
       </c>
       <c r="N8">
-        <v>1.793123918546513</v>
+        <v>2.552223694005207</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.413426246682462</v>
+        <v>0.6293394883501264</v>
       </c>
       <c r="C9">
-        <v>0.1888116410757732</v>
+        <v>0.05789868454419889</v>
       </c>
       <c r="D9">
-        <v>0.04014738074670854</v>
+        <v>0.06781908261914804</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.942400758330109</v>
+        <v>1.75273915454261</v>
       </c>
       <c r="G9">
-        <v>0.0007979172737060638</v>
+        <v>0.002490854421654742</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.481595132216256</v>
+        <v>0.6042016576192282</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.712043342899875</v>
+        <v>1.086489041410047</v>
       </c>
       <c r="N9">
-        <v>1.863274503210135</v>
+        <v>2.56805955274514</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.696749302067587</v>
+        <v>0.6995157349705039</v>
       </c>
       <c r="C10">
-        <v>0.227394112618228</v>
+        <v>0.06787515685707035</v>
       </c>
       <c r="D10">
-        <v>0.03685365756219872</v>
+        <v>0.06753471114104714</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.219924904726824</v>
+        <v>1.813716215835981</v>
       </c>
       <c r="G10">
-        <v>0.0007860663642299537</v>
+        <v>0.002484573929688946</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.781574699796181</v>
+        <v>0.6792177358785523</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.624369968990891</v>
+        <v>1.267655065277381</v>
       </c>
       <c r="N10">
-        <v>1.930021919958648</v>
+        <v>2.582797471587156</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.828733664504597</v>
+        <v>0.7317978812056936</v>
       </c>
       <c r="C11">
-        <v>0.2453415008296815</v>
+        <v>0.07243339530008086</v>
       </c>
       <c r="D11">
-        <v>0.03532786401474119</v>
+        <v>0.06740168847228656</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.352231656257402</v>
+        <v>1.842308381441597</v>
       </c>
       <c r="G11">
-        <v>0.0007806980166565891</v>
+        <v>0.002481848198873489</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.921271123265171</v>
+        <v>0.7136750691019245</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.074035928669133</v>
+        <v>1.350887973071139</v>
       </c>
       <c r="N11">
-        <v>1.964588764273145</v>
+        <v>2.590185812804009</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.879237566017906</v>
+        <v>0.7440742038728843</v>
       </c>
       <c r="C12">
-        <v>0.2522052532098087</v>
+        <v>0.07416242439084897</v>
       </c>
       <c r="D12">
-        <v>0.03474502867087192</v>
+        <v>0.06735078711021458</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.403355195461202</v>
+        <v>1.853259122818741</v>
       </c>
       <c r="G12">
-        <v>0.0007786640416182572</v>
+        <v>0.00248083479548877</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.974719122248672</v>
+        <v>0.7267713476909421</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.250799420211507</v>
+        <v>1.382532127746074</v>
       </c>
       <c r="N12">
-        <v>1.978375232137779</v>
+        <v>2.593082704718057</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.868335951251566</v>
+        <v>0.7414279720985348</v>
       </c>
       <c r="C13">
-        <v>0.2507238392892646</v>
+        <v>0.07378991602280394</v>
       </c>
       <c r="D13">
-        <v>0.03487079831171025</v>
+        <v>0.06736177316958081</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.392296663198167</v>
+        <v>1.850895178867205</v>
       </c>
       <c r="G13">
-        <v>0.0007791022248537366</v>
+        <v>0.002481052216948996</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.963182317758651</v>
+        <v>0.7239486890108822</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.212412574635422</v>
+        <v>1.375711277676729</v>
       </c>
       <c r="N13">
-        <v>1.975373411399374</v>
+        <v>2.592454388492115</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.832877651362736</v>
+        <v>0.7328068228179347</v>
       </c>
       <c r="C14">
-        <v>0.2459047688699627</v>
+        <v>0.07257558461802205</v>
       </c>
       <c r="D14">
-        <v>0.03528002246099771</v>
+        <v>0.06739751139180683</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.356416173876383</v>
+        <v>1.843206825636827</v>
       </c>
       <c r="G14">
-        <v>0.0007805307314062819</v>
+        <v>0.002481764449904405</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.925656822086495</v>
+        <v>0.7147515435544562</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.088438050404889</v>
+        <v>1.353488792884676</v>
       </c>
       <c r="N14">
-        <v>1.96570842664255</v>
+        <v>2.590422151758247</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.811229227666331</v>
+        <v>0.727532868749023</v>
       </c>
       <c r="C15">
-        <v>0.2429620693722825</v>
+        <v>0.07183215412392485</v>
       </c>
       <c r="D15">
-        <v>0.03552998833277288</v>
+        <v>0.06741933318838367</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.334576377467087</v>
+        <v>1.838513595532405</v>
       </c>
       <c r="G15">
-        <v>0.000781405441468935</v>
+        <v>0.002482203154604345</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.902745400906525</v>
+        <v>0.7091242901104522</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.013397397978622</v>
+        <v>1.33989347895097</v>
       </c>
       <c r="N15">
-        <v>1.959882133953386</v>
+        <v>2.589190274080948</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.688192643692588</v>
+        <v>0.6974132545274188</v>
       </c>
       <c r="C16">
-        <v>0.2262300479900858</v>
+        <v>0.06757767086116928</v>
       </c>
       <c r="D16">
-        <v>0.03695273171514524</v>
+        <v>0.0675433306345079</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.211412506686415</v>
+        <v>1.811864890380406</v>
       </c>
       <c r="G16">
-        <v>0.0007864173060460056</v>
+        <v>0.00248475469538759</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.772517117040678</v>
+        <v>0.6769725748036421</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.595798472711039</v>
+        <v>1.262232753498296</v>
       </c>
       <c r="N16">
-        <v>1.927854969111763</v>
+        <v>2.582328451891129</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.613559969486033</v>
+        <v>0.679027841665544</v>
       </c>
       <c r="C17">
-        <v>0.216074019173476</v>
+        <v>0.06497282216410838</v>
       </c>
       <c r="D17">
-        <v>0.03781781016883601</v>
+        <v>0.06761845987778736</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.137505976824983</v>
+        <v>1.79573590624554</v>
       </c>
       <c r="G17">
-        <v>0.0007894949482842178</v>
+        <v>0.002486353534041016</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.693510102197251</v>
+        <v>0.6573338001104219</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.349420067703889</v>
+        <v>1.214805815945397</v>
       </c>
       <c r="N17">
-        <v>1.90934422759176</v>
+        <v>2.578294648081979</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.570919643185817</v>
+        <v>0.6684867807000217</v>
       </c>
       <c r="C18">
-        <v>0.2102691162826744</v>
+        <v>0.06347645052511552</v>
       </c>
       <c r="D18">
-        <v>0.03831287546794959</v>
+        <v>0.06766132779288814</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.095556809180124</v>
+        <v>1.786539218467368</v>
       </c>
       <c r="G18">
-        <v>0.0007912675752383194</v>
+        <v>0.002487285508057369</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.648366195084037</v>
+        <v>0.646069342425875</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.210858682761227</v>
+        <v>1.187603759088077</v>
       </c>
       <c r="N18">
-        <v>1.899086526837237</v>
+        <v>2.576038846603851</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.556529337430135</v>
+        <v>0.6649235477015907</v>
       </c>
       <c r="C19">
-        <v>0.208309657788476</v>
+        <v>0.06297012380760236</v>
       </c>
       <c r="D19">
-        <v>0.03848009476501169</v>
+        <v>0.06767578304333899</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.081445568736328</v>
+        <v>1.783439141823322</v>
       </c>
       <c r="G19">
-        <v>0.0007918682931414662</v>
+        <v>0.002487603185589199</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.633130227103834</v>
+        <v>0.6422607489733991</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.164446396504104</v>
+        <v>1.178406542542476</v>
       </c>
       <c r="N19">
-        <v>1.895677753288965</v>
+        <v>2.575286098626435</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.621474568604327</v>
+        <v>0.6809815065939233</v>
       </c>
       <c r="C20">
-        <v>0.2171512881144224</v>
+        <v>0.06524991892673881</v>
       </c>
       <c r="D20">
-        <v>0.0377259873820277</v>
+        <v>0.06761049790653573</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.145314503550409</v>
+        <v>1.797444550061002</v>
       </c>
       <c r="G20">
-        <v>0.0007891671029344633</v>
+        <v>0.002486182055848019</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.701889041165856</v>
+        <v>0.659421145401069</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.375312127703396</v>
+        <v>1.21984650416897</v>
       </c>
       <c r="N20">
-        <v>1.911273834858235</v>
+        <v>2.578717389622497</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.843277699855918</v>
+        <v>0.7353376565214091</v>
       </c>
       <c r="C21">
-        <v>0.2473183253747635</v>
+        <v>0.07293218335007623</v>
       </c>
       <c r="D21">
-        <v>0.03515997083526079</v>
+        <v>0.06738702857086665</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.3669260644117</v>
+        <v>1.845461722969347</v>
       </c>
       <c r="G21">
-        <v>0.0007801112144230678</v>
+        <v>0.002481554741204354</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.936663377091236</v>
+        <v>0.7174516622688429</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.124661968903553</v>
+        <v>1.360012601782728</v>
       </c>
       <c r="N21">
-        <v>1.9685275296859</v>
+        <v>2.591016373856945</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.991340307795923</v>
+        <v>0.7711644249128256</v>
       </c>
       <c r="C22">
-        <v>0.2674333302201006</v>
+        <v>0.07797005524275846</v>
       </c>
       <c r="D22">
-        <v>0.0334527218567815</v>
+        <v>0.06723789667125457</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.517811235271353</v>
+        <v>1.877564003427636</v>
       </c>
       <c r="G22">
-        <v>0.0007741833445859021</v>
+        <v>0.002478639889592316</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.093343764650001</v>
+        <v>0.7556580725693038</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.653298132049102</v>
+        <v>1.45235545602668</v>
       </c>
       <c r="N22">
-        <v>2.010064658239997</v>
+        <v>2.599632376411165</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.912003550445235</v>
+        <v>0.7520153122655984</v>
       </c>
       <c r="C23">
-        <v>0.2566572305293988</v>
+        <v>0.07527966548130394</v>
       </c>
       <c r="D23">
-        <v>0.03436713145533954</v>
+        <v>0.0673177738304247</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.436669540624806</v>
+        <v>1.860364240705337</v>
       </c>
       <c r="G23">
-        <v>0.0007773497689687964</v>
+        <v>0.002480185629615917</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.009393209542623</v>
+        <v>0.73524086988877</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.36696095504216</v>
+        <v>1.403000341111763</v>
       </c>
       <c r="N23">
-        <v>1.987483046541826</v>
+        <v>2.594980730618261</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.617895552507747</v>
+        <v>0.6800981644976503</v>
       </c>
       <c r="C24">
-        <v>0.216664149910045</v>
+        <v>0.06512463977644245</v>
       </c>
       <c r="D24">
-        <v>0.03776750748670699</v>
+        <v>0.06761409852524825</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.141782595479114</v>
+        <v>1.796671835279241</v>
       </c>
       <c r="G24">
-        <v>0.0007893153114454794</v>
+        <v>0.002486259541190768</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.698100062192992</v>
+        <v>0.6584773752091166</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.363596825163498</v>
+        <v>1.217567409264433</v>
       </c>
       <c r="N24">
-        <v>1.910400268907296</v>
+        <v>2.578526071105117</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.311371724301182</v>
+        <v>0.6038128284637594</v>
       </c>
       <c r="C25">
-        <v>0.1748910328150544</v>
+        <v>0.05424194591606124</v>
       </c>
       <c r="D25">
-        <v>0.04134191902403161</v>
+        <v>0.06792057575338362</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.844710686602184</v>
+        <v>1.731035033182906</v>
       </c>
       <c r="G25">
-        <v>0.0008023255764271462</v>
+        <v>0.002493284423389768</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.373499317227896</v>
+        <v>0.5768687494065432</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.398954405151557</v>
+        <v>1.020448294029549</v>
       </c>
       <c r="N25">
-        <v>1.841893615706098</v>
+        <v>2.563233772840164</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_176/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_176/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5487310763284654</v>
+        <v>1.092419740434025</v>
       </c>
       <c r="C2">
-        <v>0.04628598318475952</v>
+        <v>0.1449690758393274</v>
       </c>
       <c r="D2">
-        <v>0.06813507012373599</v>
+        <v>0.04392367914929718</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.68530142800185</v>
+        <v>1.639579297849266</v>
       </c>
       <c r="G2">
-        <v>0.002498868747215143</v>
+        <v>0.0008121163297149403</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5177818012245723</v>
+        <v>1.141486155482625</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8774898827038982</v>
+        <v>2.751434107962723</v>
       </c>
       <c r="N2">
-        <v>2.554056340231384</v>
+        <v>1.801332627641131</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5120698686170897</v>
+        <v>0.9471953907599868</v>
       </c>
       <c r="C3">
-        <v>0.04092766014900917</v>
+        <v>0.1250664676051372</v>
       </c>
       <c r="D3">
-        <v>0.06827354830565069</v>
+        <v>0.04565353397774796</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.65590589052303</v>
+        <v>1.50724871001087</v>
       </c>
       <c r="G3">
-        <v>0.002502912754646737</v>
+        <v>0.0008189299234877719</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4783511471295867</v>
+        <v>0.9874997657754534</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7818136211122635</v>
+        <v>2.338501962137542</v>
       </c>
       <c r="N3">
-        <v>2.549120797849866</v>
+        <v>1.778926624361844</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.489886788269132</v>
+        <v>0.8592855096991627</v>
       </c>
       <c r="C4">
-        <v>0.03765358004258701</v>
+        <v>0.1129891997906469</v>
       </c>
       <c r="D4">
-        <v>0.06835520188814881</v>
+        <v>0.04670899729290445</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.638639528467422</v>
+        <v>1.428792877592286</v>
       </c>
       <c r="G4">
-        <v>0.002505524586723373</v>
+        <v>0.0008232140261069446</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4544399296461563</v>
+        <v>0.8942346630394127</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7236161133314596</v>
+        <v>2.094417461242941</v>
       </c>
       <c r="N4">
-        <v>2.546719123599146</v>
+        <v>1.767374817189179</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4809290774219903</v>
+        <v>0.8237376192909664</v>
       </c>
       <c r="C5">
-        <v>0.03632331954131018</v>
+        <v>0.1080978693829309</v>
       </c>
       <c r="D5">
-        <v>0.06838763115588997</v>
+        <v>0.04713783504786928</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.63179948471155</v>
+        <v>1.397457660915805</v>
       </c>
       <c r="G5">
-        <v>0.002506621430187587</v>
+        <v>0.0008249867459845256</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4447709615452595</v>
+        <v>0.8565080273422723</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.700031484842242</v>
+        <v>1.99691676595468</v>
       </c>
       <c r="N5">
-        <v>2.545897926150275</v>
+        <v>1.763181950837875</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4794466088263789</v>
+        <v>0.817850475460574</v>
       </c>
       <c r="C6">
-        <v>0.03610266793289441</v>
+        <v>0.1072873362900282</v>
       </c>
       <c r="D6">
-        <v>0.06839296504527859</v>
+        <v>0.04720897757586862</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.630675528004559</v>
+        <v>1.392291057371892</v>
       </c>
       <c r="G6">
-        <v>0.002506805526518616</v>
+        <v>0.0008252827748253097</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4431699628792387</v>
+        <v>0.8502592446465655</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6961230195227586</v>
+        <v>1.980834666742425</v>
       </c>
       <c r="N6">
-        <v>2.545771062252413</v>
+        <v>1.762515710747579</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4897656493419049</v>
+        <v>0.8588050315195233</v>
       </c>
       <c r="C7">
-        <v>0.03763562375176832</v>
+        <v>0.1129231183303148</v>
       </c>
       <c r="D7">
-        <v>0.06835564265911631</v>
+        <v>0.04671478538958196</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.638546487940161</v>
+        <v>1.428367787922511</v>
       </c>
       <c r="G7">
-        <v>0.002505539247464312</v>
+        <v>0.0008232378225774196</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4543092269954059</v>
+        <v>0.8937247905462016</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7232975195421432</v>
+        <v>2.093095074251991</v>
       </c>
       <c r="N7">
-        <v>2.546707411703082</v>
+        <v>1.767316237274514</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5360222992001127</v>
+        <v>1.042059839563137</v>
       </c>
       <c r="C8">
-        <v>0.04443508612943958</v>
+        <v>0.1380733945405268</v>
       </c>
       <c r="D8">
-        <v>0.06818351908998022</v>
+        <v>0.04452177586356942</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.675003004320075</v>
+        <v>1.593329198813876</v>
       </c>
       <c r="G8">
-        <v>0.002500236458389892</v>
+        <v>0.0008144458346787084</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.504123825121269</v>
+        <v>1.088098313449166</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8443829763395883</v>
+        <v>2.606823167348978</v>
       </c>
       <c r="N8">
-        <v>2.552223694005207</v>
+        <v>1.793123918546627</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6293394883501264</v>
+        <v>1.413426246682263</v>
       </c>
       <c r="C9">
-        <v>0.05789868454419889</v>
+        <v>0.1888116410759579</v>
       </c>
       <c r="D9">
-        <v>0.06781908261914804</v>
+        <v>0.04014738074670499</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.75273915454261</v>
+        <v>1.942400758330081</v>
       </c>
       <c r="G9">
-        <v>0.002490854421654742</v>
+        <v>0.0007979172737035537</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6042016576192282</v>
+        <v>1.48159513221637</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.086489041410047</v>
+        <v>3.712043342899861</v>
       </c>
       <c r="N9">
-        <v>2.56805955274514</v>
+        <v>1.863274503210107</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6995157349705039</v>
+        <v>1.696749302067417</v>
       </c>
       <c r="C10">
-        <v>0.06787515685707035</v>
+        <v>0.2273941126184269</v>
       </c>
       <c r="D10">
-        <v>0.06753471114104714</v>
+        <v>0.03685365756253045</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.813716215835981</v>
+        <v>2.21992490472681</v>
       </c>
       <c r="G10">
-        <v>0.002484573929688946</v>
+        <v>0.000786066364284169</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6792177358785523</v>
+        <v>1.781574699796153</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.267655065277381</v>
+        <v>4.624369968990891</v>
       </c>
       <c r="N10">
-        <v>2.582797471587156</v>
+        <v>1.930021919958648</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7317978812056936</v>
+        <v>1.828733664504682</v>
       </c>
       <c r="C11">
-        <v>0.07243339530008086</v>
+        <v>0.2453415008296815</v>
       </c>
       <c r="D11">
-        <v>0.06740168847228656</v>
+        <v>0.0353278640147332</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.842308381441597</v>
+        <v>2.352231656257416</v>
       </c>
       <c r="G11">
-        <v>0.002481848198873489</v>
+        <v>0.0007806980167673385</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7136750691019245</v>
+        <v>1.921271123265143</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.350887973071139</v>
+        <v>5.074035928669176</v>
       </c>
       <c r="N11">
-        <v>2.590185812804009</v>
+        <v>1.964588764273202</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7440742038728843</v>
+        <v>1.879237566017906</v>
       </c>
       <c r="C12">
-        <v>0.07416242439084897</v>
+        <v>0.2522052532098371</v>
       </c>
       <c r="D12">
-        <v>0.06735078711021458</v>
+        <v>0.0347450286706481</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.853259122818741</v>
+        <v>2.403355195461188</v>
       </c>
       <c r="G12">
-        <v>0.00248083479548877</v>
+        <v>0.0007786640415617315</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7267713476909421</v>
+        <v>1.974719122248757</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.382532127746074</v>
+        <v>5.250799420211493</v>
       </c>
       <c r="N12">
-        <v>2.593082704718057</v>
+        <v>1.978375232137779</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7414279720985348</v>
+        <v>1.868335951251623</v>
       </c>
       <c r="C13">
-        <v>0.07378991602280394</v>
+        <v>0.2507238392890656</v>
       </c>
       <c r="D13">
-        <v>0.06736177316958081</v>
+        <v>0.03487079831183681</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.850895178867205</v>
+        <v>2.392296663198181</v>
       </c>
       <c r="G13">
-        <v>0.002481052216948996</v>
+        <v>0.0007791022248552638</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7239486890108822</v>
+        <v>1.963182317758708</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.375711277676729</v>
+        <v>5.212412574635408</v>
       </c>
       <c r="N13">
-        <v>2.592454388492115</v>
+        <v>1.975373411399431</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7328068228179347</v>
+        <v>1.832877651362622</v>
       </c>
       <c r="C14">
-        <v>0.07257558461802205</v>
+        <v>0.2459047688697495</v>
       </c>
       <c r="D14">
-        <v>0.06739751139180683</v>
+        <v>0.03528002246099016</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.843206825636827</v>
+        <v>2.356416173876397</v>
       </c>
       <c r="G14">
-        <v>0.002481764449904405</v>
+        <v>0.0007805307312927061</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7147515435544562</v>
+        <v>1.92565682208641</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.353488792884676</v>
+        <v>5.088438050404932</v>
       </c>
       <c r="N14">
-        <v>2.590422151758247</v>
+        <v>1.965708426642522</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.727532868749023</v>
+        <v>1.811229227666587</v>
       </c>
       <c r="C15">
-        <v>0.07183215412392485</v>
+        <v>0.2429620693720551</v>
       </c>
       <c r="D15">
-        <v>0.06741933318838367</v>
+        <v>0.03552998833276355</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.838513595532405</v>
+        <v>2.334576377467101</v>
       </c>
       <c r="G15">
-        <v>0.002482203154604345</v>
+        <v>0.0007814054414101355</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7091242901104522</v>
+        <v>1.902745400906525</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.33989347895097</v>
+        <v>5.013397397978622</v>
       </c>
       <c r="N15">
-        <v>2.589190274080948</v>
+        <v>1.959882133953386</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6974132545274188</v>
+        <v>1.688192643692474</v>
       </c>
       <c r="C16">
-        <v>0.06757767086116928</v>
+        <v>0.2262300479902706</v>
       </c>
       <c r="D16">
-        <v>0.0675433306345079</v>
+        <v>0.03695273171503333</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.811864890380406</v>
+        <v>2.211412506686429</v>
       </c>
       <c r="G16">
-        <v>0.00248475469538759</v>
+        <v>0.0007864173059872583</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6769725748036421</v>
+        <v>1.772517117040678</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.262232753498296</v>
+        <v>4.595798472711024</v>
       </c>
       <c r="N16">
-        <v>2.582328451891129</v>
+        <v>1.927854969111763</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.679027841665544</v>
+        <v>1.613559969485891</v>
       </c>
       <c r="C17">
-        <v>0.06497282216410838</v>
+        <v>0.2160740191737176</v>
       </c>
       <c r="D17">
-        <v>0.06761845987778736</v>
+        <v>0.03781781016894126</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.79573590624554</v>
+        <v>2.137505976824983</v>
       </c>
       <c r="G17">
-        <v>0.002486353534041016</v>
+        <v>0.0007894949483421234</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6573338001104219</v>
+        <v>1.69351010219728</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.214805815945397</v>
+        <v>4.349420067703861</v>
       </c>
       <c r="N17">
-        <v>2.578294648081979</v>
+        <v>1.90934422759176</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6684867807000217</v>
+        <v>1.570919643185675</v>
       </c>
       <c r="C18">
-        <v>0.06347645052511552</v>
+        <v>0.2102691162826744</v>
       </c>
       <c r="D18">
-        <v>0.06766132779288814</v>
+        <v>0.03831287546794515</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.786539218467368</v>
+        <v>2.095556809180124</v>
       </c>
       <c r="G18">
-        <v>0.002487285508057369</v>
+        <v>0.0007912675752311124</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.646069342425875</v>
+        <v>1.648366195084122</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.187603759088077</v>
+        <v>4.210858682761227</v>
       </c>
       <c r="N18">
-        <v>2.576038846603851</v>
+        <v>1.899086526837237</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6649235477015907</v>
+        <v>1.556529337430135</v>
       </c>
       <c r="C19">
-        <v>0.06297012380760236</v>
+        <v>0.2083096577885755</v>
       </c>
       <c r="D19">
-        <v>0.06767578304333899</v>
+        <v>0.03848009476499836</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.783439141823322</v>
+        <v>2.081445568736328</v>
       </c>
       <c r="G19">
-        <v>0.002487603185589199</v>
+        <v>0.0007918682930323677</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6422607489733991</v>
+        <v>1.633130227103862</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.178406542542476</v>
+        <v>4.164446396504147</v>
       </c>
       <c r="N19">
-        <v>2.575286098626435</v>
+        <v>1.895677753288965</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6809815065939233</v>
+        <v>1.621474568604441</v>
       </c>
       <c r="C20">
-        <v>0.06524991892673881</v>
+        <v>0.2171512881146356</v>
       </c>
       <c r="D20">
-        <v>0.06761049790653573</v>
+        <v>0.03772598738201927</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.797444550061002</v>
+        <v>2.145314503550352</v>
       </c>
       <c r="G20">
-        <v>0.002486182055848019</v>
+        <v>0.0007891671029340831</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.659421145401069</v>
+        <v>1.701889041165913</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.21984650416897</v>
+        <v>4.375312127703381</v>
       </c>
       <c r="N20">
-        <v>2.578717389622497</v>
+        <v>1.91127383485815</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7353376565214091</v>
+        <v>1.843277699856003</v>
       </c>
       <c r="C21">
-        <v>0.07293218335007623</v>
+        <v>0.2473183253747635</v>
       </c>
       <c r="D21">
-        <v>0.06738702857086665</v>
+        <v>0.03515997083516531</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.845461722969347</v>
+        <v>2.3669260644117</v>
       </c>
       <c r="G21">
-        <v>0.002481554741204354</v>
+        <v>0.0007801112144801706</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7174516622688429</v>
+        <v>1.936663377091122</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.360012601782728</v>
+        <v>5.124661968903595</v>
       </c>
       <c r="N21">
-        <v>2.591016373856945</v>
+        <v>1.9685275296859</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7711644249128256</v>
+        <v>1.991340307795809</v>
       </c>
       <c r="C22">
-        <v>0.07797005524275846</v>
+        <v>0.2674333302203138</v>
       </c>
       <c r="D22">
-        <v>0.06723789667125457</v>
+        <v>0.0334527218566576</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.877564003427636</v>
+        <v>2.517811235271353</v>
       </c>
       <c r="G22">
-        <v>0.002478639889592316</v>
+        <v>0.0007741833446419838</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7556580725693038</v>
+        <v>2.093343764650001</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.45235545602668</v>
+        <v>5.653298132049102</v>
       </c>
       <c r="N22">
-        <v>2.599632376411165</v>
+        <v>2.010064658239997</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7520153122655984</v>
+        <v>1.912003550445036</v>
       </c>
       <c r="C23">
-        <v>0.07527966548130394</v>
+        <v>0.2566572305294272</v>
       </c>
       <c r="D23">
-        <v>0.0673177738304247</v>
+        <v>0.03436713145535553</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.860364240705337</v>
+        <v>2.436669540624749</v>
       </c>
       <c r="G23">
-        <v>0.002480185629615917</v>
+        <v>0.0007773497689139051</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.73524086988877</v>
+        <v>2.009393209542623</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.403000341111763</v>
+        <v>5.366960955042146</v>
       </c>
       <c r="N23">
-        <v>2.594980730618261</v>
+        <v>1.987483046541854</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6800981644976503</v>
+        <v>1.617895552507832</v>
       </c>
       <c r="C24">
-        <v>0.06512463977644245</v>
+        <v>0.2166641499095903</v>
       </c>
       <c r="D24">
-        <v>0.06761409852524825</v>
+        <v>0.0377675074864734</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.796671835279241</v>
+        <v>2.141782595479071</v>
       </c>
       <c r="G24">
-        <v>0.002486259541190768</v>
+        <v>0.0007893153113322495</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6584773752091166</v>
+        <v>1.698100062193078</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.217567409264433</v>
+        <v>4.363596825163498</v>
       </c>
       <c r="N24">
-        <v>2.578526071105117</v>
+        <v>1.910400268907267</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6038128284637594</v>
+        <v>1.311371724301267</v>
       </c>
       <c r="C25">
-        <v>0.05424194591606124</v>
+        <v>0.1748910328152959</v>
       </c>
       <c r="D25">
-        <v>0.06792057575338362</v>
+        <v>0.04134191902382156</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.731035033182906</v>
+        <v>1.844710686602198</v>
       </c>
       <c r="G25">
-        <v>0.002493284423389768</v>
+        <v>0.0008023255763991369</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5768687494065432</v>
+        <v>1.373499317227811</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.020448294029549</v>
+        <v>3.398954405151514</v>
       </c>
       <c r="N25">
-        <v>2.563233772840164</v>
+        <v>1.841893615706056</v>
       </c>
       <c r="O25">
         <v>0</v>
